--- a/Proyectos/2015/11/P1344 - CCON, Alfredo Gutierrez _ MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/11/P1344 - CCON, Alfredo Gutierrez _ MO/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>REPORTE DE NO CONFORMIDADES</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Existe un documento de Estimación sin embargo no es el mismo que pertenece al proyecto</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
   <si>
     <t>Cambiar los documentos que tiene almacenado en el repo por los que otorga el sistema</t>
@@ -339,8 +336,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,10 +436,10 @@
         <v>42346</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -462,10 +459,10 @@
         <v>42346</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -485,10 +482,10 @@
         <v>42346</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -508,10 +505,10 @@
         <v>42346</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -531,10 +528,10 @@
         <v>42346</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -554,10 +551,10 @@
         <v>42346</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -577,10 +574,10 @@
         <v>42346</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
